--- a/medicine/Mort/1-800-273-8255/1-800-273-8255.xlsx
+++ b/medicine/Mort/1-800-273-8255/1-800-273-8255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">1-800-273-8255 est une chanson du rappeur américain Logic en featuring avec Alessia Cara et Khalid. Elle est sortie le 28 avril 2017 par Visionary Music Group (en) et Def Jam Recordings, en tant que troisième extrait du troisième album studio de Logic, Everybody (2017).
 Le nom de la chanson, inhabituel, est le numéro de téléphone de la National Suicide Prevention Lifeline (en) (NSPL), un numéro de téléphone d'un réseau de prévention du suicide.
